--- a/Bond Data/Data.xlsx
+++ b/Bond Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshimmy/Desktop/ECON392W/Bond Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237CBC4E-690F-5C4D-B983-636BCFFC08B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2F4411-7C65-7E4D-9590-C36A0D5B4D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{2E030079-1FC5-1842-B5AC-FC2B119021E8}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D1125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
